--- a/ClientClasses/for_patterns_generating/pats_all.xlsx
+++ b/ClientClasses/for_patterns_generating/pats_all.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:A86"/>
+  <dimension ref="A2:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,550 +422,116 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="2"/>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[[10, 32, 20, 20, 1041, 34, 10, 10], [10, 10, 10, 20, 20, 20, 34, 71], [10, 20, 20, 20, 20, 34, 10, 62], [41, 10, 20, 20, 10, 10, 10, 62], [10, 32, 20, 20, 34, 10, 10, 62], [10, 10, 20, 20, 34, 10, 10, 10], [10, 31, 10, 10, 10, 20, 10, 20], [10, 33, 10, 20, 20, 34, 41, 10]]</t>
+          <t>[[1041, 20, 20, 34, 10, 10, 41, 10], [31, 20, 10, 31, 10, 20, 10, 10], [20, 10, 10, 33, 71, 20, 10, 10], [20, 10, 10, 10, 10, 33, 10, 20], [33, 10, 10, 20, 10, 10, 10, 10], [41, 10, 32, 20, 20, 20, 34, 20], [10, 10, 10, 20, 20, 34, 10, 20], [63, 63, 63, 10, 20, 20, 20, 34]]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[[10, 10, 31, 32, 20, 20, 20, 34], [20, 20, 20, 1041, 20, 20, 34, 10], [10, 10, 20, 20, 10, 20, 10, 10], [10, 10, 33, 33, 32, 34, 10, 62], [20, 20, 20, 34, 10, 10, 10, 62], [10, 10, 10, 10, 20, 20, 10, 62], [10, 10, 10, 10, 71, 10, 10, 42], [10, 41, 10, 20, 20, 20, 34, 10]]</t>
+          <t>[[10, 10, 20, 20, 20, 34, 10, 10], [10, 32, 20, 20, 34, 20, 20, 34], [31, 10, 10, 10, 20, 71, 10, 42], [20, 10, 20, 10, 10, 10, 10, 62], [20, 20, 20, 20, 10, 31, 10, 62], [20, 10, 20, 20, 10, 33, 10, 62], [33, 10, 33, 10, 10, 10, 10, 10], [10, 1041, 20, 20, 34, 10, 41, 10]]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[[10, 20, 20, 20, 10, 20, 10, 10], [10, 10, 42, 20, 20, 20, 10, 10], [20, 10, 10, 33, 20, 20, 32, 34], [10, 10, 10, 10, 20, 33, 10, 10], [64, 10, 10, 71, 33, 10, 20, 10], [64, 10, 10, 32, 20, 20, 34, 10], [64, 10, 10, 10, 20, 20, 20, 34], [42, 10, 10, 32, 20, 20, 1041, 34]]</t>
+          <t>[[10, 10, 1041, 20, 20, 34, 10, 10], [10, 10, 10, 31, 10, 10, 10, 41], [10, 20, 31, 33, 10, 10, 10, 10], [20, 10, 20, 10, 20, 20, 20, 10], [20, 20, 20, 10, 20, 71, 10, 10], [20, 20, 20, 10, 33, 10, 10, 62], [20, 33, 33, 10, 20, 10, 10, 62], [33, 32, 20, 20, 34, 42, 10, 62]]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[[10, 10, 10, 32, 20, 20, 34, 41], [32, 20, 20, 20, 34, 10, 10, 10], [1041, 20, 20, 20, 34, 10, 10, 20], [64, 10, 71, 10, 10, 10, 32, 34], [64, 10, 10, 20, 10, 10, 10, 20], [64, 10, 10, 20, 41, 10, 10, 20], [20, 20, 20, 34, 10, 10, 10, 33], [10, 20, 20, 34, 10, 20, 10, 10]]</t>
+          <t>[[31, 32, 20, 20, 34, 10, 42, 10], [33, 42, 10, 10, 10, 10, 10, 62], [10, 10, 20, 10, 10, 20, 10, 62], [10, 20, 20, 34, 10, 10, 10, 62], [20, 20, 20, 20, 34, 10, 10, 10], [10, 10, 10, 10, 10, 20, 20, 71], [10, 10, 32, 20, 20, 20, 34, 10], [10, 1041, 20, 20, 34, 20, 20, 34]]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[[64, 10, 10, 20, 20, 34, 20, 10], [64, 10, 10, 20, 20, 1041, 20, 34], [64, 10, 10, 20, 20, 34, 20, 20], [41, 10, 31, 10, 32, 20, 20, 34], [10, 10, 33, 10, 10, 10, 10, 10], [10, 10, 32, 20, 20, 20, 34, 71], [10, 20, 20, 20, 34, 10, 10, 10], [10, 20, 10, 10, 10, 10, 10, 42]]</t>
+          <t>[[64, 10, 10, 32, 20, 1041, 20, 34], [64, 10, 10, 10, 20, 20, 10, 10], [64, 10, 20, 10, 20, 20, 20, 34], [10, 10, 20, 20, 20, 20, 34, 10], [42, 10, 20, 20, 10, 20, 10, 10], [10, 10, 33, 33, 20, 10, 71, 10], [20, 32, 34, 10, 10, 42, 10, 10], [32, 20, 20, 34, 10, 10, 10, 10]]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[[10, 31, 20, 20, 10, 20, 41, 10], [10, 33, 10, 10, 10, 20, 10, 10], [10, 10, 10, 10, 10, 33, 10, 10], [10, 20, 20, 20, 34, 71, 20, 10], [10, 20, 32, 20, 20, 20, 34, 10], [1041, 20, 20, 34, 10, 41, 10, 20], [10, 20, 20, 34, 10, 10, 10, 10], [32, 20, 20, 34, 10, 63, 63, 63]]</t>
+          <t>[[10, 10, 20, 20, 20, 34, 10, 42], [10, 10, 10, 10, 10, 10, 10, 62], [20, 32, 1041, 20, 34, 10, 10, 62], [32, 34, 20, 20, 20, 34, 10, 62], [20, 10, 32, 20, 20, 20, 34, 10], [20, 10, 20, 10, 10, 71, 20, 10], [33, 10, 10, 10, 20, 20, 10, 10], [10, 41, 10, 10, 20, 20, 34, 10]]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[[71, 10, 10, 10, 10, 10, 42, 10], [10, 41, 20, 20, 10, 10, 10, 20], [32, 34, 20, 10, 31, 31, 10, 20], [10, 10, 20, 20, 20, 20, 10, 20], [20, 10, 33, 20, 20, 20, 10, 33], [10, 10, 20, 20, 33, 20, 10, 62], [10, 10, 10, 33, 10, 33, 10, 62], [1041, 20, 20, 34, 10, 10, 10, 62]]</t>
+          <t>[[20, 10, 10, 10, 10, 20, 20, 34], [20, 32, 1041, 20, 20, 34, 20, 10], [20, 32, 20, 20, 34, 10, 10, 10], [33, 10, 20, 20, 32, 34, 10, 42], [20, 20, 20, 10, 10, 10, 10, 10], [10, 20, 33, 10, 20, 20, 20, 34], [10, 41, 10, 10, 10, 10, 10, 10], [10, 10, 10, 10, 71, 63, 63, 63]]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[[1041, 20, 20, 20, 34, 10, 10, 42], [20, 10, 10, 10, 31, 10, 31, 10], [20, 10, 20, 10, 20, 10, 33, 10], [33, 10, 20, 31, 20, 10, 10, 71], [10, 20, 20, 20, 20, 20, 10, 62], [10, 10, 33, 20, 33, 20, 10, 62], [10, 20, 10, 33, 42, 10, 10, 62], [10, 10, 10, 20, 20, 34, 10, 10]]</t>
+          <t>[[20, 20, 20, 34, 10, 10, 10, 10], [10, 10, 20, 32, 20, 20, 20, 34], [10, 41, 20, 20, 20, 34, 10, 42], [10, 10, 20, 20, 34, 10, 10, 10], [64, 10, 10, 20, 20, 10, 10, 10], [64, 10, 10, 10, 20, 10, 31, 10], [64, 10, 32, 20, 20, 34, 33, 20], [10, 10, 10, 1041, 20, 34, 71, 10]]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[[10, 42, 10, 10, 20, 10, 10, 10], [20, 20, 10, 32, 20, 20, 1041, 34], [20, 20, 32, 34, 20, 20, 20, 34], [20, 33, 32, 20, 20, 34, 10, 10], [33, 10, 10, 10, 20, 20, 10, 62], [10, 20, 20, 34, 10, 10, 10, 62], [20, 10, 10, 10, 10, 10, 10, 62], [71, 10, 42, 10, 10, 10, 10, 20]]</t>
+          <t>[[20, 10, 10, 10, 10, 10, 10, 10], [20, 20, 10, 10, 20, 20, 20, 34], [10, 20, 10, 10, 20, 41, 10, 62], [10, 20, 10, 31, 20, 10, 10, 62], [20, 33, 31, 20, 20, 10, 10, 62], [10, 10, 33, 20, 33, 10, 10, 71], [10, 20, 10, 33, 20, 20, 34, 10], [10, 32, 1041, 20, 20, 34, 10, 41]]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[[10, 20, 20, 20, 34, 10, 10, 10], [10, 32, 20, 20, 20, 34, 31, 10], [20, 20, 20, 34, 20, 1041, 33, 10], [10, 10, 10, 32, 20, 20, 34, 10], [42, 10, 10, 10, 20, 10, 10, 20], [64, 10, 20, 10, 10, 10, 10, 20], [64, 10, 10, 10, 10, 71, 10, 33], [64, 10, 20, 20, 20, 34, 10, 42]]</t>
+          <t>[[10, 10, 10, 10, 10, 10, 10, 31], [10, 10, 10, 20, 20, 20, 10, 20], [20, 10, 42, 10, 20, 20, 10, 20], [64, 10, 10, 10, 20, 20, 20, 20], [64, 10, 10, 20, 33, 33, 10, 33], [64, 10, 10, 20, 20, 20, 34, 31], [10, 10, 10, 20, 20, 34, 10, 33], [42, 10, 10, 71, 32, 20, 1041, 34]]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[[10, 10, 10, 10, 32, 20, 20, 34], [10, 20, 31, 20, 10, 10, 71, 20], [31, 20, 33, 20, 42, 10, 10, 62], [20, 20, 10, 20, 20, 10, 10, 62], [20, 33, 20, 20, 10, 20, 10, 62], [20, 10, 10, 33, 10, 20, 10, 10], [33, 10, 10, 10, 10, 33, 10, 10], [10, 20, 1041, 20, 34, 10, 10, 42]]</t>
+          <t>[[10, 41, 10, 20, 20, 10, 20, 10], [31, 10, 71, 10, 10, 10, 10, 20], [33, 10, 10, 32, 20, 20, 34, 20], [64, 10, 10, 10, 10, 10, 10, 20], [64, 10, 10, 20, 20, 34, 10, 33], [64, 10, 20, 10, 10, 20, 10, 10], [32, 20, 20, 20, 34, 10, 10, 42], [1041, 20, 20, 34, 10, 20, 20, 34]]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[[10, 10, 10, 10, 20, 20, 34, 10], [20, 41, 10, 10, 32, 34, 10, 62], [20, 20, 20, 20, 34, 10, 10, 62], [10, 20, 10, 20, 10, 10, 10, 62], [10, 20, 20, 20, 34, 10, 10, 10], [32, 20, 20, 20, 34, 10, 10, 10], [10, 1041, 20, 34, 71, 10, 42, 10], [32, 20, 20, 34, 10, 10, 20, 10]]</t>
+          <t>[[10, 20, 1041, 34, 10, 31, 20, 10], [10, 20, 20, 20, 34, 33, 10, 10], [10, 10, 32, 20, 20, 20, 34, 10], [64, 10, 20, 32, 20, 20, 34, 10], [64, 10, 10, 10, 10, 10, 41, 10], [64, 10, 10, 20, 20, 71, 10, 10], [20, 41, 10, 20, 20, 20, 20, 34], [20, 10, 10, 33, 10, 10, 10, 10]]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[[31, 10, 10, 10, 71, 32, 34, 10], [20, 10, 20, 10, 42, 10, 20, 10], [20, 10, 10, 10, 20, 20, 34, 10], [33, 20, 32, 20, 20, 20, 34, 10], [20, 20, 10, 10, 10, 10, 10, 10], [20, 1041, 20, 20, 34, 10, 10, 42], [20, 10, 10, 10, 20, 10, 10, 10], [33, 20, 20, 34, 10, 63, 63, 63]]</t>
+          <t>[[20, 20, 1041, 10, 10, 10, 10, 71], [32, 20, 20, 34, 10, 20, 10, 10], [64, 10, 20, 10, 10, 20, 20, 10], [64, 10, 10, 10, 10, 20, 20, 10], [64, 10, 20, 20, 10, 33, 20, 10], [20, 41, 20, 10, 10, 10, 33, 10], [20, 10, 33, 10, 32, 34, 41, 10], [33, 32, 20, 20, 20, 34, 10, 10]]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[[31, 10, 20, 10, 20, 10, 10, 42], [33, 10, 20, 10, 20, 10, 10, 20], [10, 71, 42, 10, 20, 10, 20, 10], [10, 10, 10, 10, 33, 10, 10, 62], [20, 10, 32, 20, 20, 34, 10, 62], [20, 32, 20, 20, 20, 34, 10, 62], [33, 10, 10, 10, 20, 20, 1041, 34], [10, 10, 20, 20, 20, 34, 10, 10]]</t>
+          <t>[[20, 20, 20, 34, 20, 10, 10, 42], [10, 10, 10, 10, 10, 20, 10, 10], [10, 10, 10, 10, 20, 20, 10, 62], [31, 1041, 20, 20, 34, 33, 10, 62], [20, 32, 20, 20, 20, 34, 10, 62], [20, 10, 20, 20, 34, 71, 10, 20], [33, 10, 32, 34, 10, 10, 10, 20], [10, 10, 10, 10, 41, 10, 20, 10]]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[[42, 10, 32, 20, 20, 1041, 34, 10], [64, 10, 10, 10, 10, 10, 10, 10], [64, 10, 20, 10, 10, 10, 20, 31], [64, 10, 20, 20, 10, 10, 20, 20], [20, 10, 33, 20, 10, 10, 33, 20], [20, 32, 34, 20, 71, 20, 10, 33], [20, 10, 20, 33, 10, 10, 42, 10], [33, 10, 10, 10, 10, 20, 20, 20]]</t>
+          <t>[[32, 20, 20, 34, 10, 10, 10, 42], [10, 20, 20, 34, 10, 31, 10, 20], [20, 32, 34, 10, 10, 20, 71, 20], [64, 10, 10, 10, 20, 20, 10, 20], [64, 10, 10, 10, 10, 20, 10, 33], [64, 10, 10, 10, 10, 33, 10, 41], [1041, 20, 34, 10, 20, 10, 10, 10], [10, 20, 20, 20, 20, 20, 34, 10]]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[[71, 10, 32, 34, 10, 10, 20, 41], [10, 20, 20, 20, 34, 10, 20, 10], [31, 20, 1041, 10, 10, 10, 33, 10], [20, 20, 10, 10, 10, 10, 10, 10], [20, 10, 20, 20, 20, 34, 10, 20], [20, 32, 20, 20, 34, 10, 41, 20], [33, 10, 10, 10, 10, 10, 10, 33], [10, 20, 63, 63, 63, 20, 10, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>[[42, 10, 10, 10, 10, 42, 10, 20], [64, 10, 20, 71, 10, 10, 10, 10], [64, 10, 20, 32, 20, 20, 34, 20], [64, 10, 20, 10, 32, 34, 10, 20], [10, 10, 10, 20, 20, 20, 34, 33], [10, 20, 20, 20, 34, 10, 10, 20], [10, 10, 10, 1041, 20, 34, 10, 10], [10, 10, 32, 20, 20, 20, 34, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>[[10, 10, 32, 20, 1041, 20, 34, 10], [10, 20, 20, 34, 10, 31, 10, 10], [10, 10, 10, 20, 20, 20, 20, 20], [20, 10, 20, 20, 20, 20, 10, 20], [20, 10, 20, 20, 20, 33, 71, 10], [33, 10, 10, 33, 33, 32, 34, 10], [10, 10, 10, 10, 10, 10, 10, 10], [10, 42, 63, 63, 63, 10, 10, 41]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>[[20, 20, 20, 34, 20, 20, 20, 34], [10, 20, 20, 34, 31, 20, 10, 42], [10, 20, 10, 10, 20, 20, 10, 62], [32, 34, 10, 10, 20, 33, 10, 62], [10, 10, 20, 10, 20, 10, 10, 62], [20, 10, 10, 10, 33, 10, 10, 10], [10, 10, 10, 20, 20, 10, 10, 10], [32, 1041, 20, 34, 10, 10, 71, 41]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>[[10, 10, 10, 10, 10, 42, 20, 10], [10, 20, 20, 34, 10, 10, 20, 31], [64, 10, 10, 10, 10, 10, 20, 20], [64, 10, 32, 34, 20, 20, 20, 20], [64, 10, 10, 10, 10, 20, 20, 20], [10, 20, 20, 34, 10, 20, 33, 33], [20, 20, 10, 10, 71, 33, 10, 10], [32, 20, 1041, 34, 10, 10, 10, 42]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>[[10, 10, 71, 10, 10, 10, 10, 31], [20, 1041, 20, 34, 10, 10, 41, 20], [10, 10, 10, 20, 31, 10, 20, 20], [20, 20, 34, 20, 20, 10, 10, 33], [10, 20, 10, 20, 20, 10, 10, 10], [10, 20, 20, 20, 20, 10, 10, 62], [10, 20, 31, 33, 33, 10, 10, 62], [10, 33, 33, 20, 10, 42, 10, 62]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>[[64, 10, 20, 10, 20, 20, 20, 34], [64, 10, 10, 10, 10, 10, 10, 10], [64, 10, 32, 20, 1041, 20, 34, 20], [31, 10, 10, 10, 10, 10, 10, 20], [33, 10, 20, 20, 34, 10, 20, 20], [10, 10, 10, 10, 20, 20, 10, 33], [10, 32, 20, 20, 34, 10, 20, 41], [41, 20, 20, 34, 10, 10, 71, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>[[32, 34, 10, 20, 1041, 20, 34, 10], [32, 20, 20, 20, 34, 10, 20, 10], [71, 10, 10, 20, 10, 10, 10, 20], [42, 10, 10, 10, 10, 20, 20, 20], [64, 10, 10, 20, 20, 20, 34, 20], [64, 10, 20, 20, 34, 10, 10, 33], [64, 10, 10, 10, 10, 10, 10, 41], [10, 10, 32, 20, 20, 34, 10, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>[[10, 31, 20, 20, 20, 34, 10, 20], [20, 20, 20, 20, 10, 20, 10, 71], [1041, 20, 20, 20, 10, 42, 10, 10], [33, 20, 20, 10, 10, 10, 10, 20], [10, 33, 33, 10, 10, 32, 34, 20], [32, 20, 20, 34, 10, 10, 10, 33], [10, 10, 10, 10, 10, 10, 10, 10], [10, 10, 63, 63, 63, 41, 20, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>[[10, 20, 20, 34, 10, 41, 10, 20], [42, 10, 10, 10, 10, 10, 10, 20], [64, 10, 32, 20, 20, 20, 34, 20], [64, 10, 20, 20, 20, 34, 10, 33], [64, 10, 10, 20, 31, 10, 20, 10], [10, 10, 10, 10, 33, 10, 20, 10], [10, 32, 20, 1041, 34, 10, 20, 10], [71, 10, 10, 20, 10, 20, 20, 34]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>[[10, 41, 20, 10, 10, 10, 10, 42], [64, 10, 20, 20, 10, 10, 10, 10], [64, 10, 32, 20, 20, 20, 34, 71], [64, 10, 20, 20, 20, 34, 10, 10], [10, 20, 10, 20, 20, 34, 10, 10], [10, 10, 10, 32, 20, 20, 34, 10], [10, 10, 10, 20, 20, 1041, 34, 10], [20, 32, 34, 10, 20, 20, 34, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>[[10, 10, 32, 20, 20, 20, 34, 10], [10, 10, 71, 10, 10, 10, 10, 20], [32, 20, 20, 34, 20, 42, 10, 20], [20, 20, 34, 10, 10, 20, 10, 33], [10, 20, 20, 20, 34, 20, 10, 10], [10, 1041, 20, 20, 20, 20, 34, 10], [10, 10, 10, 32, 34, 10, 10, 10], [63, 63, 63, 10, 10, 10, 10, 41]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>[[42, 10, 10, 10, 10, 10, 71, 10], [20, 20, 32, 20, 20, 20, 34, 10], [10, 10, 20, 20, 34, 10, 10, 10], [10, 20, 10, 10, 20, 42, 10, 62], [10, 20, 32, 20, 20, 34, 10, 62], [10, 20, 20, 20, 34, 10, 10, 62], [10, 33, 20, 10, 10, 20, 10, 10], [1041, 20, 20, 34, 32, 34, 10, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>[[20, 20, 20, 34, 10, 10, 10, 10], [10, 1041, 20, 20, 34, 20, 41, 10], [32, 20, 20, 34, 71, 31, 10, 10], [64, 10, 10, 20, 10, 33, 10, 31], [64, 10, 20, 20, 10, 10, 10, 20], [64, 10, 20, 33, 10, 20, 10, 20], [10, 10, 10, 10, 10, 10, 41, 20], [10, 20, 20, 20, 34, 10, 10, 33]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>[[64, 10, 71, 10, 10, 32, 34, 10], [64, 10, 10, 10, 10, 10, 10, 42], [64, 10, 20, 20, 20, 34, 10, 10], [31, 10, 32, 20, 20, 20, 34, 20], [20, 20, 20, 20, 34, 10, 20, 20], [1041, 20, 10, 20, 10, 10, 20, 10], [33, 20, 10, 20, 10, 10, 20, 10], [10, 33, 10, 10, 10, 42, 33, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>[[10, 10, 10, 10, 71, 10, 10, 41], [41, 10, 20, 10, 10, 20, 10, 10], [20, 10, 20, 10, 10, 20, 31, 10], [10, 10, 33, 10, 20, 20, 33, 10], [64, 10, 32, 20, 20, 20, 34, 10], [64, 10, 10, 20, 20, 20, 34, 10], [64, 10, 10, 10, 20, 20, 20, 34], [20, 20, 34, 32, 1041, 20, 34, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>[[10, 10, 32, 20, 20, 34, 10, 10], [10, 20, 10, 31, 10, 20, 10, 42], [71, 31, 10, 33, 10, 20, 10, 10], [20, 20, 20, 20, 10, 20, 10, 62], [1041, 20, 10, 10, 20, 33, 10, 62], [10, 20, 10, 10, 20, 10, 10, 62], [10, 33, 10, 10, 33, 10, 10, 42], [10, 20, 20, 20, 34, 20, 20, 34]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>[[20, 10, 20, 1041, 20, 34, 10, 10], [20, 20, 20, 20, 34, 20, 10, 20], [10, 10, 10, 32, 34, 20, 71, 10], [10, 10, 10, 10, 10, 20, 10, 42], [10, 10, 20, 20, 34, 33, 10, 10], [32, 20, 20, 34, 10, 10, 10, 62], [32, 20, 20, 20, 34, 20, 10, 62], [10, 10, 10, 10, 42, 10, 10, 62]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>[[41, 10, 20, 20, 34, 20, 71, 10], [10, 10, 32, 20, 20, 20, 34, 10], [20, 10, 10, 32, 20, 1041, 34, 20], [64, 10, 20, 10, 10, 20, 10, 20], [64, 10, 20, 10, 20, 20, 10, 20], [64, 10, 33, 10, 10, 20, 10, 33], [20, 10, 10, 10, 10, 33, 10, 10], [20, 41, 32, 34, 10, 10, 10, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>[[10, 20, 20, 20, 34, 10, 10, 10], [10, 42, 10, 10, 10, 20, 20, 41], [20, 10, 71, 20, 10, 10, 20, 10], [20, 10, 20, 20, 10, 31, 20, 10], [33, 10, 20, 20, 34, 33, 33, 10], [64, 10, 20, 10, 10, 10, 10, 10], [64, 10, 32, 20, 1041, 20, 34, 10], [64, 10, 10, 32, 20, 20, 34, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>[[10, 10, 10, 1041, 20, 20, 34, 10], [10, 20, 32, 20, 20, 34, 10, 10], [10, 20, 20, 10, 10, 10, 10, 10], [31, 10, 20, 10, 20, 20, 10, 10], [20, 20, 33, 10, 20, 31, 10, 20], [20, 10, 42, 10, 20, 33, 10, 42], [20, 10, 10, 10, 33, 10, 10, 71], [33, 63, 63, 63, 20, 20, 34, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>[[10, 20, 20, 20, 34, 1041, 20, 10], [20, 20, 34, 32, 20, 20, 20, 34], [42, 10, 32, 20, 20, 34, 10, 10], [10, 10, 20, 10, 10, 32, 34, 10], [64, 10, 20, 20, 10, 20, 20, 10], [64, 10, 20, 20, 10, 10, 10, 10], [64, 10, 33, 33, 10, 71, 10, 10], [10, 10, 10, 10, 10, 20, 41, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>[[64, 10, 32, 20, 20, 20, 34, 41], [64, 10, 10, 32, 20, 20, 34, 10], [64, 10, 10, 10, 10, 10, 10, 10], [31, 10, 10, 10, 20, 10, 20, 10], [33, 10, 71, 10, 20, 10, 20, 10], [10, 1041, 20, 20, 20, 34, 33, 10], [10, 10, 10, 20, 20, 34, 10, 10], [20, 20, 20, 34, 20, 20, 41, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>[[10, 10, 1041, 20, 20, 34, 10, 41], [10, 10, 20, 20, 20, 34, 71, 10], [10, 10, 10, 10, 10, 31, 10, 10], [10, 10, 20, 10, 10, 20, 10, 62], [10, 10, 20, 20, 20, 20, 10, 62], [10, 10, 33, 10, 20, 20, 10, 62], [32, 20, 20, 34, 20, 33, 10, 20], [20, 10, 32, 34, 33, 10, 41, 20]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>[[20, 10, 10, 20, 1041, 20, 34, 10], [20, 10, 10, 32, 20, 20, 20, 34], [33, 10, 20, 10, 31, 10, 10, 10], [64, 10, 20, 20, 33, 20, 10, 20], [64, 10, 33, 20, 20, 20, 10, 10], [64, 10, 10, 20, 10, 10, 42, 10], [42, 10, 71, 33, 10, 10, 10, 10], [20, 10, 10, 32, 20, 20, 34, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>[[20, 1041, 20, 34, 10, 10, 10, 41], [10, 10, 32, 20, 20, 34, 10, 10], [10, 10, 20, 20, 20, 20, 10, 20], [10, 10, 20, 20, 20, 20, 34, 10], [20, 10, 20, 33, 10, 10, 71, 10], [64, 10, 33, 20, 10, 10, 10, 10], [64, 10, 32, 20, 20, 20, 34, 10], [64, 10, 10, 10, 10, 32, 34, 41]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>[[10, 20, 10, 20, 20, 20, 34, 10], [41, 10, 32, 20, 20, 20, 34, 20], [10, 10, 10, 10, 10, 42, 20, 20], [32, 20, 20, 34, 10, 31, 20, 20], [10, 20, 10, 10, 10, 33, 33, 33], [10, 20, 10, 10, 10, 10, 10, 10], [10, 20, 20, 10, 10, 10, 10, 10], [10, 33, 20, 1041, 71, 63, 63, 63]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>[[10, 10, 20, 20, 20, 34, 20, 20], [10, 32, 20, 20, 20, 34, 10, 10], [10, 20, 10, 10, 20, 20, 10, 41], [10, 20, 31, 32, 20, 20, 34, 10], [10, 20, 33, 10, 20, 20, 34, 71], [10, 33, 10, 10, 20, 10, 10, 10], [10, 1041, 20, 34, 10, 10, 10, 10], [10, 10, 10, 10, 63, 63, 63, 41]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>[[10, 20, 10, 10, 10, 42, 10, 10], [10, 20, 20, 10, 10, 10, 10, 62], [41, 33, 10, 20, 10, 71, 10, 62], [10, 10, 20, 20, 20, 34, 10, 62], [20, 10, 10, 32, 20, 20, 34, 10], [20, 10, 20, 20, 20, 20, 34, 10], [10, 32, 20, 20, 1041, 34, 10, 10], [10, 32, 34, 20, 20, 34, 10, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>[[20, 10, 1041, 20, 20, 34, 10, 62], [10, 10, 20, 20, 20, 34, 10, 62], [10, 10, 10, 20, 20, 34, 10, 62], [10, 10, 32, 20, 20, 34, 10, 20], [10, 10, 10, 10, 10, 10, 10, 20], [41, 20, 20, 20, 34, 10, 10, 31], [10, 32, 20, 20, 20, 34, 10, 33], [71, 20, 10, 10, 10, 10, 10, 42]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>[[10, 32, 20, 20, 20, 34, 41, 10], [10, 1041, 20, 20, 34, 10, 10, 62], [71, 20, 20, 34, 10, 10, 10, 62], [10, 10, 10, 20, 20, 10, 10, 62], [10, 32, 34, 20, 20, 10, 10, 31], [10, 10, 10, 20, 20, 20, 10, 20], [20, 20, 10, 33, 33, 10, 10, 20], [20, 10, 10, 10, 10, 41, 10, 33]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>[[41, 10, 32, 20, 20, 1041, 34, 10], [10, 10, 10, 20, 20, 10, 31, 10], [10, 10, 20, 20, 20, 34, 33, 10], [64, 10, 10, 10, 10, 10, 20, 10], [64, 10, 20, 20, 34, 10, 20, 31], [64, 10, 20, 20, 34, 20, 20, 20], [10, 10, 10, 10, 41, 20, 33, 20], [10, 10, 20, 10, 10, 10, 71, 33]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>[[10, 10, 32, 34, 10, 10, 10, 62], [31, 10, 20, 10, 10, 42, 10, 62], [20, 20, 20, 20, 10, 20, 10, 62], [20, 20, 20, 10, 10, 10, 20, 10], [33, 20, 33, 10, 20, 10, 20, 20], [10, 33, 10, 10, 10, 10, 33, 20], [32, 1041, 20, 20, 34, 10, 10, 71], [10, 10, 10, 20, 20, 34, 42, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>[[31, 10, 10, 10, 41, 20, 10, 20], [20, 10, 10, 10, 10, 20, 10, 62], [20, 10, 10, 31, 10, 33, 10, 62], [33, 20, 20, 20, 10, 10, 10, 62], [20, 20, 20, 20, 71, 20, 20, 20], [10, 33, 20, 20, 10, 32, 34, 41], [10, 10, 33, 33, 10, 10, 10, 10], [20, 1041, 20, 34, 10, 10, 10, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>[[10, 20, 20, 20, 34, 10, 10, 71], [32, 20, 1041, 20, 34, 20, 10, 62], [10, 10, 10, 20, 20, 34, 10, 62], [32, 34, 10, 20, 10, 10, 10, 62], [10, 10, 10, 10, 10, 10, 41, 31], [10, 20, 20, 10, 10, 20, 10, 20], [10, 10, 10, 20, 20, 34, 10, 20], [10, 41, 20, 20, 20, 34, 10, 33]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>[[10, 20, 10, 32, 20, 20, 34, 10], [20, 32, 1041, 20, 20, 34, 10, 42], [20, 20, 10, 10, 32, 34, 10, 10], [20, 10, 10, 20, 20, 20, 34, 20], [33, 10, 10, 10, 10, 10, 10, 20], [64, 10, 10, 10, 10, 10, 20, 33], [64, 10, 20, 20, 34, 20, 20, 10], [64, 10, 10, 71, 10, 10, 42, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>[[10, 10, 32, 34, 20, 71, 10, 10], [10, 10, 32, 20, 20, 34, 10, 42], [10, 20, 1041, 20, 34, 20, 10, 20], [10, 10, 10, 10, 20, 20, 31, 20], [20, 10, 10, 10, 10, 33, 20, 20], [20, 10, 10, 10, 20, 20, 20, 33], [33, 10, 10, 10, 10, 42, 20, 20], [10, 63, 63, 63, 10, 10, 33, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>[[32, 20, 20, 34, 31, 10, 10, 41], [10, 20, 20, 34, 20, 10, 10, 10], [64, 10, 20, 20, 20, 10, 10, 71], [64, 10, 20, 10, 20, 10, 20, 20], [64, 10, 10, 10, 33, 10, 20, 20], [10, 32, 34, 10, 10, 10, 41, 20], [10, 1041, 20, 34, 10, 10, 10, 33], [10, 10, 10, 20, 20, 20, 34, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>[[10, 42, 31, 10, 32, 20, 1041, 34], [10, 20, 33, 10, 20, 20, 34, 10], [10, 71, 20, 20, 10, 10, 10, 10], [20, 10, 10, 10, 10, 20, 10, 20], [20, 10, 10, 10, 20, 20, 10, 62], [20, 42, 10, 10, 20, 20, 10, 62], [20, 10, 10, 10, 33, 33, 10, 62], [33, 10, 10, 32, 20, 20, 20, 34]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>[[10, 10, 71, 10, 10, 10, 41, 10], [1041, 20, 20, 34, 10, 10, 10, 20], [10, 20, 10, 31, 10, 10, 10, 20], [10, 20, 20, 20, 10, 32, 34, 20], [10, 33, 10, 20, 20, 20, 34, 10], [64, 10, 20, 33, 42, 10, 10, 10], [64, 10, 10, 20, 20, 20, 34, 10], [64, 10, 32, 20, 20, 20, 34, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>[[10, 10, 10, 1041, 20, 20, 34, 10], [10, 32, 20, 20, 20, 34, 10, 71], [20, 10, 20, 20, 34, 31, 10, 62], [20, 20, 20, 34, 20, 20, 10, 62], [20, 10, 10, 20, 10, 20, 10, 62], [33, 32, 34, 10, 10, 33, 10, 41], [10, 10, 10, 10, 10, 10, 10, 10], [10, 20, 41, 10, 20, 20, 10, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>[[10, 10, 1041, 20, 20, 34, 10, 41], [64, 10, 10, 20, 20, 20, 34, 10], [64, 10, 20, 20, 34, 10, 10, 31], [64, 10, 10, 10, 10, 10, 10, 20], [20, 10, 10, 10, 10, 10, 10, 20], [10, 10, 42, 71, 20, 20, 34, 20], [10, 31, 20, 20, 20, 20, 10, 33], [10, 33, 10, 32, 20, 20, 34, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>[[64, 10, 71, 20, 20, 34, 10, 10], [64, 10, 20, 20, 20, 34, 10, 41], [64, 10, 10, 10, 10, 10, 10, 10], [20, 32, 20, 20, 34, 10, 10, 10], [20, 20, 20, 10, 10, 20, 20, 10], [20, 10, 10, 32, 34, 10, 10, 10], [33, 10, 1041, 20, 34, 10, 10, 41], [20, 10, 32, 20, 20, 20, 34, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>[[41, 71, 32, 20, 20, 20, 34, 10], [10, 10, 10, 10, 31, 20, 42, 10], [20, 10, 10, 10, 20, 20, 10, 10], [20, 20, 10, 20, 20, 20, 10, 62], [10, 10, 10, 10, 33, 33, 10, 62], [20, 20, 20, 34, 10, 10, 10, 62], [20, 20, 34, 10, 10, 10, 10, 10], [32, 34, 10, 1041, 20, 20, 34, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>[[10, 10, 32, 20, 20, 20, 34, 10], [10, 10, 32, 34, 10, 20, 42, 10], [10, 31, 10, 10, 20, 20, 10, 62], [10, 20, 10, 20, 20, 10, 10, 62], [10, 1041, 20, 20, 20, 71, 10, 62], [20, 33, 20, 33, 33, 10, 10, 10], [20, 20, 20, 34, 10, 10, 10, 10], [10, 20, 20, 34, 10, 10, 42, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>[[10, 10, 10, 20, 1041, 20, 34, 10], [10, 32, 20, 20, 20, 34, 10, 62], [10, 10, 10, 20, 31, 10, 10, 62], [31, 10, 10, 20, 33, 20, 10, 62], [20, 10, 10, 33, 20, 20, 34, 10], [20, 10, 71, 20, 20, 20, 10, 10], [33, 41, 20, 20, 20, 20, 34, 41], [10, 10, 10, 10, 10, 10, 10, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>[[10, 10, 10, 10, 20, 1041, 10, 62], [42, 10, 32, 20, 20, 34, 10, 62], [31, 20, 20, 20, 34, 71, 10, 62], [33, 10, 10, 10, 31, 10, 10, 10], [10, 20, 10, 10, 20, 20, 10, 10], [10, 20, 10, 20, 20, 20, 42, 10], [10, 20, 20, 20, 20, 33, 10, 10], [10, 33, 20, 33, 33, 20, 10, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>[[10, 10, 32, 20, 20, 20, 34, 10], [20, 20, 20, 34, 20, 20, 20, 34], [41, 10, 10, 32, 20, 1041, 34, 20], [10, 10, 10, 10, 10, 10, 20, 20], [10, 10, 10, 10, 32, 34, 10, 33], [20, 20, 34, 20, 10, 20, 71, 10], [10, 10, 10, 10, 10, 10, 10, 10], [63, 63, 63, 41, 10, 10, 20, 20]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>[[10, 20, 20, 20, 34, 10, 41, 10], [10, 10, 20, 10, 71, 10, 10, 10], [20, 1041, 20, 20, 32, 34, 10, 62], [20, 20, 20, 20, 20, 10, 10, 62], [33, 10, 33, 33, 10, 10, 10, 62], [32, 20, 20, 34, 10, 10, 20, 10], [20, 10, 10, 10, 10, 41, 10, 10], [10, 10, 32, 20, 20, 20, 34, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>[[20, 20, 20, 34, 10, 20, 10, 10], [42, 10, 10, 10, 10, 10, 10, 31], [10, 10, 20, 20, 10, 10, 41, 20], [10, 20, 20, 20, 34, 71, 10, 20], [20, 20, 34, 20, 10, 20, 10, 20], [64, 10, 20, 20, 34, 10, 31, 33], [64, 10, 10, 10, 10, 10, 33, 10], [64, 10, 10, 10, 32, 20, 1041, 34]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>[[10, 20, 32, 20, 20, 34, 10, 42], [10, 10, 10, 20, 20, 20, 34, 10], [42, 10, 32, 20, 20, 20, 34, 10], [10, 10, 20, 10, 20, 10, 10, 10], [64, 10, 20, 10, 20, 20, 10, 10], [64, 10, 33, 10, 20, 1041, 71, 10], [64, 10, 10, 10, 10, 20, 32, 34], [10, 20, 20, 20, 34, 33, 10, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>[[10, 32, 34, 1041, 20, 34, 10, 20], [20, 10, 10, 10, 20, 31, 10, 62], [20, 10, 20, 31, 20, 20, 10, 62], [33, 10, 20, 20, 10, 20, 10, 62], [41, 10, 20, 20, 10, 20, 10, 10], [10, 20, 33, 33, 10, 33, 10, 10], [10, 10, 10, 10, 10, 10, 10, 20], [71, 10, 20, 20, 20, 34, 41, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>[[10, 10, 32, 20, 20, 20, 34, 41], [20, 1041, 20, 20, 34, 31, 10, 10], [20, 20, 20, 20, 34, 20, 10, 20], [33, 20, 20, 34, 10, 20, 10, 10], [64, 10, 20, 10, 10, 33, 10, 10], [64, 10, 20, 20, 10, 10, 10, 10], [64, 10, 10, 10, 10, 71, 10, 10], [10, 32, 34, 10, 20, 10, 41, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="76"/>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>[[10, 10, 10, 20, 20, 10, 42, 20], [10, 10, 20, 31, 20, 10, 10, 20], [10, 20, 20, 20, 20, 10, 20, 33], [64, 10, 31, 20, 33, 10, 20, 10], [64, 10, 33, 33, 20, 10, 20, 10], [64, 10, 10, 10, 10, 10, 33, 10], [32, 20, 20, 20, 34, 10, 10, 42], [10, 1041, 20, 34, 10, 10, 71, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>[[10, 20, 20, 34, 31, 42, 10, 10], [10, 20, 20, 10, 20, 20, 10, 62], [71, 10, 10, 10, 20, 10, 10, 62], [10, 42, 10, 20, 33, 10, 10, 62], [10, 20, 20, 20, 34, 10, 31, 10], [10, 10, 20, 20, 20, 34, 33, 10], [10, 10, 20, 20, 34, 10, 10, 10], [10, 32, 20, 20, 1041, 34, 20, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>[[1041, 20, 20, 34, 10, 10, 10, 10], [10, 10, 10, 10, 10, 31, 10, 42], [64, 10, 31, 10, 10, 20, 10, 20], [64, 10, 20, 32, 34, 20, 10, 20], [64, 10, 20, 20, 10, 33, 10, 20], [71, 10, 20, 20, 10, 20, 20, 33], [10, 41, 33, 20, 10, 20, 20, 10], [20, 10, 10, 33, 10, 10, 33, 20]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>[[10, 10, 42, 10, 10, 20, 71, 10], [32, 34, 20, 31, 10, 20, 10, 42], [20, 10, 20, 20, 10, 33, 10, 62], [20, 31, 20, 20, 10, 10, 10, 62], [20, 20, 20, 20, 10, 10, 10, 62], [10, 20, 33, 33, 10, 20, 10, 10], [10, 33, 10, 1041, 20, 20, 34, 10], [10, 10, 20, 20, 34, 10, 10, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>[[10, 10, 10, 10, 10, 42, 10, 31], [20, 10, 10, 20, 10, 31, 10, 33], [20, 10, 10, 20, 20, 20, 20, 10], [20, 10, 10, 33, 20, 20, 20, 10], [33, 71, 10, 20, 20, 33, 33, 10], [10, 42, 10, 10, 33, 10, 10, 20], [10, 10, 10, 32, 20, 20, 1041, 34], [63, 63, 63, 10, 10, 20, 20, 20]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>[[10, 20, 20, 20, 34, 10, 10, 31], [41, 10, 10, 20, 20, 34, 71, 20], [10, 32, 20, 20, 20, 34, 10, 20], [10, 10, 10, 10, 10, 10, 41, 33], [10, 32, 34, 10, 20, 10, 10, 10], [20, 20, 20, 20, 20, 34, 10, 10], [20, 20, 34, 10, 10, 10, 10, 10], [1041, 20, 10, 10, 63, 63, 63, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>[[10, 10, 10, 20, 20, 34, 10, 10], [64, 10, 41, 71, 20, 20, 10, 42], [64, 10, 10, 10, 20, 20, 20, 34], [64, 10, 32, 20, 20, 34, 10, 20], [10, 10, 10, 10, 20, 10, 10, 20], [10, 10, 10, 32, 34, 10, 10, 33], [20, 10, 32, 20, 20, 20, 34, 10], [10, 1041, 20, 20, 20, 34, 10, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>[[31, 10, 20, 20, 20, 34, 10, 20], [33, 20, 20, 20, 20, 10, 10, 20], [10, 20, 20, 1041, 10, 10, 10, 62], [31, 10, 20, 33, 10, 10, 10, 62], [20, 71, 33, 20, 20, 34, 10, 62], [20, 10, 10, 10, 10, 10, 10, 42], [33, 10, 32, 20, 20, 20, 34, 10], [10, 10, 42, 10, 10, 10, 10, 10]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>[[10, 20, 20, 20, 34, 42, 10, 20], [10, 10, 10, 10, 31, 71, 10, 10], [10, 10, 10, 10, 33, 10, 10, 10], [31, 10, 10, 20, 20, 20, 34, 10], [20, 10, 10, 20, 32, 20, 20, 34], [1041, 20, 10, 10, 20, 20, 34, 10], [20, 20, 20, 34, 10, 10, 10, 10], [33, 10, 20, 20, 63, 63, 63, 41]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>[[10, 1041, 20, 20, 34, 10, 42, 10], [10, 10, 10, 20, 10, 10, 10, 62], [10, 10, 32, 20, 20, 34, 10, 62], [20, 20, 34, 20, 20, 34, 10, 62], [20, 20, 10, 32, 20, 20, 20, 34], [10, 10, 10, 20, 10, 10, 71, 10], [10, 20, 10, 10, 10, 41, 10, 10], [10, 32, 34, 10, 20, 20, 20, 34]]</t>
+          <t>[[10, 10, 32, 20, 20, 34, 10, 10], [10, 20, 1041, 20, 34, 10, 10, 10], [20, 10, 20, 20, 10, 10, 10, 42], [10, 20, 10, 20, 20, 34, 10, 62], [10, 32, 20, 20, 20, 34, 10, 62], [10, 10, 20, 20, 20, 34, 10, 62], [10, 10, 71, 10, 20, 20, 20, 34], [10, 41, 10, 10, 32, 34, 10, 10]]</t>
         </is>
       </c>
     </row>
